--- a/biology/Zoologie/Cyrtocarenum_cunicularium/Cyrtocarenum_cunicularium.xlsx
+++ b/biology/Zoologie/Cyrtocarenum_cunicularium/Cyrtocarenum_cunicularium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtocarenum cunicularium est une espèce d'araignées mygalomorphes de la famille des Ctenizidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtocarenum cunicularium est une espèce d'araignées mygalomorphes de la famille des Ctenizidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce  se rencontre en Grèce et en Turquie occidentale[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce  se rencontre en Grèce et en Turquie occidentale,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Decae en 1996 mesure 7,1 mm de long sur 6,1 mm et celle de la femelle 8,3 mm de long sur 7,1 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Decae en 1996 mesure 7,1 mm de long sur 6,1 mm et celle de la femelle 8,3 mm de long sur 7,1 mm.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Mygale cunicularia par Olivier en 1811. Elle est placée dans le genre Cyrtocarenum par Simon en 1885[3].
-Cteniza tigrina[4] a été placée en synonymie par Hadjissarantos en 1940[5].
-Mygale ionica[6],Cyrtocephalus lapidarius[7],Cteniza orientalis mannii[8],Cyrtocarenum hellenum[8] et Cyrtocarenum werneri[9] ont été placées en synonymie par Decae en 1996[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Mygale cunicularia par Olivier en 1811. Elle est placée dans le genre Cyrtocarenum par Simon en 1885.
+Cteniza tigrina a été placée en synonymie par Hadjissarantos en 1940.
+Mygale ionica,Cyrtocephalus lapidarius,Cteniza orientalis mannii,Cyrtocarenum hellenum et Cyrtocarenum werneri ont été placées en synonymie par Decae en 1996.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Olivier, 1811 : « Mygale, Oxyope. » Encyclopédie méthodique, Histoire naturelle, Insectes, Paris, vol. 8, p. 83-87 (texte intégral).</t>
         </is>
